--- a/Lin Logs/ID3 LIN Info/ID3-4 Lin Info.xlsx
+++ b/Lin Logs/ID3 LIN Info/ID3-4 Lin Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomde\Documents\GitHub\ID3-LIN-Bus\Lin Logs\ID3 LIN Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15F47A-395B-4D9F-947D-DF131A884BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB330F5-0093-4F6F-8231-9821B43E18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27110" yWindow="-9830" windowWidth="17280" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Pos Fbk MSB</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>Air PTC</t>
   </si>
   <si>
@@ -164,19 +161,61 @@
     <t>0x3D</t>
   </si>
   <si>
-    <t>Comtrol</t>
-  </si>
-  <si>
     <t>PTC?</t>
   </si>
   <si>
-    <t>Hv Current 0.1A?</t>
-  </si>
-  <si>
     <t>HV Voltage 2Vx</t>
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>0x39</t>
+  </si>
+  <si>
+    <t>0xC5</t>
+  </si>
+  <si>
+    <t>0-100% req L</t>
+  </si>
+  <si>
+    <t>0-100% req R</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0xAA</t>
+  </si>
+  <si>
+    <t>LSB PowLim</t>
+  </si>
+  <si>
+    <t>MSB PowLim</t>
+  </si>
+  <si>
+    <t>0xA6</t>
+  </si>
+  <si>
+    <t>0xD3</t>
+  </si>
+  <si>
+    <t>Hv Current 0.5A</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>0-Off 55-On</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0-off 4-On</t>
+  </si>
+  <si>
+    <t>x20W</t>
   </si>
 </sst>
 </file>
@@ -516,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,15 +566,16 @@
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -623,7 +663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -649,80 +689,119 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s">
+      <c r="J7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>0</v>
       </c>
@@ -757,46 +836,46 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
